--- a/학습자료/단답형/한국사_대조_고려_조선.xlsx
+++ b/학습자료/단답형/한국사_대조_고려_조선.xlsx
@@ -1659,7 +1659,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2059,7 +2059,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2809,7 +2809,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2834,7 +2834,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2909,7 +2909,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3059,7 +3059,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -3109,7 +3109,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -3234,7 +3234,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3409,7 +3409,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -3734,7 +3734,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3759,7 +3759,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -3784,7 +3784,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3859,7 +3859,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -3909,7 +3909,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -4009,7 +4009,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -4059,7 +4059,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -4209,7 +4209,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -4259,7 +4259,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -4359,7 +4359,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -4534,7 +4534,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -4559,7 +4559,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -4584,7 +4584,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -4634,7 +4634,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -4659,7 +4659,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -4709,7 +4709,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -4734,7 +4734,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -4759,7 +4759,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -4784,7 +4784,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -4934,7 +4934,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183">
@@ -5034,7 +5034,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -5184,7 +5184,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -5234,7 +5234,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -5309,7 +5309,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -5334,7 +5334,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -5584,7 +5584,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -5634,7 +5634,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209">
@@ -5659,7 +5659,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -5709,7 +5709,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -5759,7 +5759,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -5784,7 +5784,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -5859,7 +5859,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -5909,7 +5909,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -6009,7 +6009,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -6059,7 +6059,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -6084,7 +6084,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -6134,7 +6134,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -6209,7 +6209,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -6259,7 +6259,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -6284,7 +6284,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -6334,7 +6334,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -6359,7 +6359,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -6384,7 +6384,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -6409,7 +6409,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -6434,7 +6434,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -6459,7 +6459,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -6484,7 +6484,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -6534,7 +6534,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -6634,7 +6634,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -6659,7 +6659,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -6684,7 +6684,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -6734,7 +6734,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -6959,7 +6959,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -7009,7 +7009,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -7059,7 +7059,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266">
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -7109,7 +7109,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -7209,7 +7209,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272">
@@ -7234,7 +7234,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -7284,7 +7284,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -7309,7 +7309,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -7334,7 +7334,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -7359,7 +7359,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
